--- a/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89288A-9E3D-4B0D-A896-DB93AEFD9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDF6A2-98F8-4BAC-8ABE-216F328523CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="600" windowWidth="19200" windowHeight="21000" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{F3EA6C4C-02C9-4399-B379-A03F8AF902E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=LET(
+    Prezzo, [@[Prezzo Mercato]],
+    Divisa, [@Divisa],
+     IF(Divisa="EUR", Prezzo,
+       LET(
+          Data, STOCKHISTORY(Divisa &amp; "/EUR", TODAY()-15, TODAY(), 0, 0, 1),
+          TassiValidi, FILTER(Data, ISNUMBER(Data)),
+          UltimoTasso, TAKE(TassiValidi, -1),
+          Prezzo * UltimoTasso
+       )
+    )
+)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Descrizione Titolo</t>
   </si>
@@ -239,17 +263,26 @@
   </si>
   <si>
     <t>DE000VJ20861</t>
+  </si>
+  <si>
+    <t>Controvalore Totale:</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;;\-"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000\ &quot;€&quot;;[Red]\-#,##0.0000\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +311,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +360,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -398,14 +454,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -414,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,9 +543,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,13 +550,221 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.0000\ &quot;€&quot;;[Red]\-#,##0.0000\ &quot;€&quot;"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
@@ -501,8 +792,114 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00;;\-"/>
       <fill>
         <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
@@ -526,329 +923,103 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -899,18 +1070,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}" name="Table1" displayName="Table1" ref="A1:I19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="4" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}" name="Table1" displayName="Table1" ref="A1:I19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:I19" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{13244BAA-6E4E-45A8-BE73-4D4764516016}" name="Descrizione Titolo" dataDxfId="11" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F51F4DA1-A077-4914-80B4-AD8AFEA9ADAD}" name="ISIN" dataDxfId="10" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{C2133E33-0C58-4FAA-8AA3-38DFFFDB3BB4}" name="Quantità" dataDxfId="9" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{D1F0CC62-5D59-4DA0-8EAB-4BB138EF8A47}" name="Divisa" dataDxfId="1" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{C9B3D54A-E0B9-4828-98B2-9CC4D10E4F29}" name="Prezzo Carico (EUR)" dataDxfId="8" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{D840105F-A0FF-48B3-B6D2-7C8E4E15D7F8}" name="Data (acquisto/vendita)" dataDxfId="0" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{55060C3D-5427-4473-A5E5-D5782153505A}" name="Operazione" dataDxfId="7" totalsRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{8247D659-8814-4F8E-BCA4-CB69E15D5754}" name="Prezzo Operazione (EUR)" dataDxfId="6" totalsRowDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{CB075AA3-AE95-48F4-96AF-9F28838DD478}" name="Prezzo Corrente (EUR)" dataDxfId="5" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{13244BAA-6E4E-45A8-BE73-4D4764516016}" name="Descrizione Titolo" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F51F4DA1-A077-4914-80B4-AD8AFEA9ADAD}" name="ISIN" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C2133E33-0C58-4FAA-8AA3-38DFFFDB3BB4}" name="Quantità" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{D1F0CC62-5D59-4DA0-8EAB-4BB138EF8A47}" name="Divisa" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{C9B3D54A-E0B9-4828-98B2-9CC4D10E4F29}" name="Prezzo Carico (EUR)" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{D840105F-A0FF-48B3-B6D2-7C8E4E15D7F8}" name="Data (acquisto/vendita)" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{55060C3D-5427-4473-A5E5-D5782153505A}" name="Operazione" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{8247D659-8814-4F8E-BCA4-CB69E15D5754}" name="Prezzo Operazione (EUR)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{CB075AA3-AE95-48F4-96AF-9F28838DD478}" name="Prezzo Corrente (EUR)" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1233,11 +1404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F19"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,10 +1422,12 @@
     <col min="7" max="7" width="16.54296875" customWidth="1"/>
     <col min="8" max="8" width="22.26953125" customWidth="1"/>
     <col min="9" max="9" width="21.90625" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="25"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1282,396 +1455,588 @@
       <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="K1" s="22">
+        <f>SUM(K2:K19)</f>
+        <v>486324.66348221997</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22">
+      <c r="E2" s="27">
+        <v>100</v>
+      </c>
+      <c r="F2" s="19">
         <v>46053</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24">
+      <c r="G2" s="18"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="33">
         <v>100.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="K2" s="35">
+        <f>+C2*I2</f>
+        <v>10017.950499999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="25">
+        <v>155</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="22">
+      <c r="E3" s="27">
+        <v>94.621300000000005</v>
+      </c>
+      <c r="F3" s="19">
         <v>46053</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="24">
+      <c r="G3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="33">
         <v>94.73</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="K3" s="35">
+        <f t="shared" ref="K3:K19" si="0">+C3*I3</f>
+        <v>14683.150000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="25">
+        <v>250</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22">
+      <c r="E4" s="27">
+        <v>90.380700000000004</v>
+      </c>
+      <c r="F4" s="19">
         <v>46053</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24">
+      <c r="G4" s="18"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="33">
         <v>98.91</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="K4" s="35">
+        <f t="shared" si="0"/>
+        <v>24727.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="25">
+        <v>786.29</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22">
+      <c r="E5" s="27">
+        <v>31.14</v>
+      </c>
+      <c r="F5" s="19">
         <v>46053</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24">
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="33">
         <v>33.770000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="K5" s="35">
+        <f t="shared" si="0"/>
+        <v>26553.013300000002</v>
+      </c>
+      <c r="M5" s="35">
+        <v>22472.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="25">
+        <v>570</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22">
+      <c r="E6" s="27">
+        <v>8.8187999999999995</v>
+      </c>
+      <c r="F6" s="19">
         <v>46053</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24">
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="33">
         <v>9.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="K6" s="35">
+        <f t="shared" si="0"/>
+        <v>5169.9000000000005</v>
+      </c>
+      <c r="M6" s="35">
+        <f>+K5-M5</f>
+        <v>4080.8433000000041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="25">
+        <v>237</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="22">
+      <c r="E7" s="27">
+        <v>42.381100000000004</v>
+      </c>
+      <c r="F7" s="19">
         <v>46053</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24">
+      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="33">
         <v>40.47</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="K7" s="35">
+        <f t="shared" si="0"/>
+        <v>9591.39</v>
+      </c>
+      <c r="M7" s="35">
+        <f>+M6+482243.82</f>
+        <v>486324.66330000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="25">
+        <v>808.88599999999997</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22">
+      <c r="E8" s="27">
+        <v>79.260800000000003</v>
+      </c>
+      <c r="F8" s="19">
         <v>46053</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24">
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="33">
         <v>153.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="K8" s="35">
+        <f t="shared" si="0"/>
+        <v>124212.53416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="25">
+        <v>255.42699999999999</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22">
+      <c r="E9" s="27">
+        <v>188.8296</v>
+      </c>
+      <c r="F9" s="19">
         <v>46053</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24">
+      <c r="G9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="33">
         <v>387.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="K9" s="35">
+        <f t="shared" si="0"/>
+        <v>98939.648450000008</v>
+      </c>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="25">
+        <v>47</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22">
+      <c r="E10" s="27">
+        <v>108.09699999999999</v>
+      </c>
+      <c r="F10" s="19">
         <v>46053</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24">
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="33">
         <v>112.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="K10" s="35">
+        <f t="shared" si="0"/>
+        <v>5272.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="25">
+        <v>945.54899999999998</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22">
+      <c r="E11" s="27">
+        <v>16.910799999999998</v>
+      </c>
+      <c r="F11" s="19">
         <v>46053</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24">
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="33">
         <v>21.368099999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="K11" s="35">
+        <f t="shared" si="0"/>
+        <v>20204.585586899997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="25">
+        <v>104.37</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="27">
+        <v>183.25</v>
+      </c>
+      <c r="F12" s="19">
+        <v>46053</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="33">
+        <v>179.13438399999998</v>
+      </c>
+      <c r="K12" s="35">
+        <f t="shared" si="0"/>
+        <v>18696.255658079997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="25">
+        <v>207.953</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="27">
+        <v>86.142099999999999</v>
+      </c>
+      <c r="F13" s="19">
+        <v>46053</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="33">
+        <v>135.32948000000002</v>
+      </c>
+      <c r="K13" s="35">
+        <f t="shared" si="0"/>
+        <v>28142.171354440005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="25">
+        <v>448.18400000000003</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22">
+      <c r="E14" s="27">
+        <v>24.51</v>
+      </c>
+      <c r="F14" s="19">
         <v>46053</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24">
-        <v>179.13438399999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="33">
+        <v>35.470399999999998</v>
+      </c>
+      <c r="K14" s="35">
+        <f t="shared" si="0"/>
+        <v>15897.265753600001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="25">
+        <v>117.944</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22">
+      <c r="E15" s="27">
+        <v>188.49709999999999</v>
+      </c>
+      <c r="F15" s="19">
         <v>46053</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24">
-        <v>135.32948000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="33">
+        <v>210.97380000000001</v>
+      </c>
+      <c r="K15" s="35">
+        <f t="shared" si="0"/>
+        <v>24883.093867200001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="25">
+        <v>586.02</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22">
+      <c r="E16" s="27">
+        <v>17.7333</v>
+      </c>
+      <c r="F16" s="19">
         <v>46053</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24">
-        <v>35.470399999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="33">
+        <v>27.0626</v>
+      </c>
+      <c r="K16" s="35">
+        <f t="shared" si="0"/>
+        <v>15859.224851999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="25">
+        <v>15</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22">
+      <c r="E17" s="27">
+        <v>1009.4647</v>
+      </c>
+      <c r="F17" s="19">
         <v>46053</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24">
-        <v>210.97380000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="33">
+        <v>1006</v>
+      </c>
+      <c r="K17" s="35">
+        <f t="shared" si="0"/>
+        <v>15090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="25">
+        <v>205</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22">
+      <c r="E18" s="27">
+        <v>97.022000000000006</v>
+      </c>
+      <c r="F18" s="19">
         <v>46053</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24">
-        <v>27.0626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33">
+        <v>97.85</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>20059.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="30">
+        <v>86</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22">
+      <c r="E19" s="32">
+        <v>93.194999999999993</v>
+      </c>
+      <c r="F19" s="19">
         <v>46053</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22">
-        <v>46053</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24">
-        <v>97.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22">
-        <v>46053</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24">
+      <c r="G19" s="18"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="34">
         <v>96.8</v>
       </c>
-    </row>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>8324.7999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4" xr:uid="{786B1B08-543B-41BE-8266-499A04655516}">
-      <formula1>"Acquisto,Vendita,-"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="A2:A19">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A2)), ISNUMBER(SEARCH("SP", A2))), 1,0)</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D19">
+    <cfRule type="notContainsText" dxfId="2" priority="2" operator="notContains" text="EUR">
+      <formula>ISERROR(SEARCH("EUR",D2))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" stopIfTrue="1" operator="containsText" id="{3AE5DE67-15A2-4F9B-AC82-395C205EEE6F}">
+            <xm:f>NOT(ISERROR(SEARCH("-",D2)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D2:D19</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1950,10 +2315,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A23">
-    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
       <formula>NOT(ISERROR(SEARCH("BTP",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>IF(AND(ISNUMBER(SEARCH("H2O", A2)), ISNUMBER(SEARCH("SP", A2))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDF6A2-98F8-4BAC-8ABE-216F328523CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED67AEA-B45E-4A13-A561-DFE2BF8739E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +366,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -500,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,6 +589,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,12 +1441,12 @@
     <col min="7" max="7" width="16.54296875" customWidth="1"/>
     <col min="8" max="8" width="22.26953125" customWidth="1"/>
     <col min="9" max="9" width="21.90625" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1457,13 +1476,13 @@
       </c>
       <c r="K1" s="22">
         <f>SUM(K2:K19)</f>
-        <v>486324.66348221997</v>
+        <v>489607.11841121991</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1499,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="20"/>
@@ -1492,7 +1511,7 @@
         <v>10017.950499999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
@@ -1509,19 +1528,19 @@
         <v>94.621300000000005</v>
       </c>
       <c r="F3" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="20"/>
       <c r="I3" s="33">
-        <v>94.73</v>
+        <v>95.4</v>
       </c>
       <c r="K3" s="35">
         <f t="shared" ref="K3:K19" si="0">+C3*I3</f>
-        <v>14683.150000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
@@ -1538,19 +1557,19 @@
         <v>90.380700000000004</v>
       </c>
       <c r="F4" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="20"/>
       <c r="I4" s="33">
-        <v>98.91</v>
+        <v>98.92</v>
       </c>
       <c r="K4" s="35">
         <f t="shared" si="0"/>
-        <v>24727.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>24730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
@@ -1567,22 +1586,27 @@
         <v>31.14</v>
       </c>
       <c r="F5" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="33">
-        <v>33.770000000000003</v>
+      <c r="I5" s="37">
+        <v>38.1601</v>
       </c>
       <c r="K5" s="35">
         <f t="shared" si="0"/>
-        <v>26553.013300000002</v>
-      </c>
-      <c r="M5" s="35">
-        <v>22472.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30004.905028999998</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36">
+        <v>0.13</v>
+      </c>
+      <c r="O5">
+        <f>+I5*(1+N5)</f>
+        <v>43.120912999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
@@ -1599,23 +1623,27 @@
         <v>8.8187999999999995</v>
       </c>
       <c r="F6" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="33">
-        <v>9.07</v>
+      <c r="I6" s="37">
+        <v>9.307500000000001</v>
       </c>
       <c r="K6" s="35">
         <f t="shared" si="0"/>
-        <v>5169.9000000000005</v>
-      </c>
-      <c r="M6" s="35">
-        <f>+K5-M5</f>
-        <v>4080.8433000000041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5305.2750000000005</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="O6">
+        <f>+I6*(1+N6)</f>
+        <v>9.4936500000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
@@ -1632,23 +1660,27 @@
         <v>42.381100000000004</v>
       </c>
       <c r="F7" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="33">
-        <v>40.47</v>
+      <c r="I7" s="38">
+        <v>37.2286</v>
       </c>
       <c r="K7" s="35">
         <f t="shared" si="0"/>
-        <v>9591.39</v>
-      </c>
-      <c r="M7" s="35">
-        <f>+M6+482243.82</f>
-        <v>486324.66330000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>8823.1782000000003</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36">
+        <v>-0.03</v>
+      </c>
+      <c r="O7">
+        <f>+I7*(1+N7)</f>
+        <v>36.111742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1665,7 +1697,7 @@
         <v>79.260800000000003</v>
       </c>
       <c r="F8" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="20"/>
@@ -1677,7 +1709,7 @@
         <v>124212.53416</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1726,7 @@
         <v>188.8296</v>
       </c>
       <c r="F9" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="20"/>
@@ -1707,7 +1739,7 @@
       </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
@@ -1724,19 +1756,19 @@
         <v>108.09699999999999</v>
       </c>
       <c r="F10" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="20"/>
       <c r="I10" s="33">
-        <v>112.19</v>
+        <v>112.51</v>
       </c>
       <c r="K10" s="35">
         <f t="shared" si="0"/>
-        <v>5272.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5287.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1785,7 @@
         <v>16.910799999999998</v>
       </c>
       <c r="F11" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="20"/>
@@ -1765,7 +1797,7 @@
         <v>20204.585586899997</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
@@ -1782,7 +1814,7 @@
         <v>183.25</v>
       </c>
       <c r="F12" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20"/>
@@ -1794,7 +1826,7 @@
         <v>18696.255658079997</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>21</v>
       </c>
@@ -1811,7 +1843,7 @@
         <v>86.142099999999999</v>
       </c>
       <c r="F13" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="20"/>
@@ -1823,7 +1855,7 @@
         <v>28142.171354440005</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1872,7 @@
         <v>24.51</v>
       </c>
       <c r="F14" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="20"/>
@@ -1852,7 +1884,7 @@
         <v>15897.265753600001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1901,7 @@
         <v>188.49709999999999</v>
       </c>
       <c r="F15" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="20"/>
@@ -1881,7 +1913,7 @@
         <v>24883.093867200001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
@@ -1898,7 +1930,7 @@
         <v>17.7333</v>
       </c>
       <c r="F16" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="20"/>
@@ -1927,16 +1959,16 @@
         <v>1009.4647</v>
       </c>
       <c r="F17" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="20"/>
       <c r="I17" s="33">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K17" s="35">
         <f t="shared" si="0"/>
-        <v>15090</v>
+        <v>15075</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1956,16 +1988,16 @@
         <v>97.022000000000006</v>
       </c>
       <c r="F18" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="20"/>
       <c r="I18" s="33">
-        <v>97.85</v>
+        <v>99</v>
       </c>
       <c r="K18" s="35">
         <f t="shared" si="0"/>
-        <v>20059.25</v>
+        <v>20295</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1985,16 +2017,16 @@
         <v>93.194999999999993</v>
       </c>
       <c r="F19" s="19">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="20"/>
       <c r="I19" s="34">
-        <v>96.8</v>
+        <v>98.21</v>
       </c>
       <c r="K19" s="35">
         <f t="shared" si="0"/>
-        <v>8324.7999999999993</v>
+        <v>8446.06</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2021,7 +2053,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" stopIfTrue="1" operator="containsText" id="{3AE5DE67-15A2-4F9B-AC82-395C205EEE6F}">
+          <x14:cfRule type="containsText" priority="1" stopIfTrue="1" operator="containsText" id="{983253CC-52ED-4C0F-8FE7-E0961D3C14A9}">
             <xm:f>NOT(ISERROR(SEARCH("-",D2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>

--- a/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED67AEA-B45E-4A13-A561-DFE2BF8739E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1CA8DB-61D8-461D-B590-970D48000E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="19200" yWindow="600" windowWidth="19200" windowHeight="21000" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$23</definedName>
   </definedNames>
@@ -98,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Descrizione Titolo</t>
   </si>
@@ -121,9 +124,6 @@
     <t>Operazione</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>Prezzo Corrente (EUR)</t>
   </si>
   <si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>Controvalore Totale:</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -329,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,20 +363,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -457,15 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -480,39 +456,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,12 +497,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,7 +505,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,34 +515,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -653,428 +577,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.0000\ &quot;€&quot;;[Red]\-#,##0.0000\ &quot;€&quot;"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00;;\-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1088,22 +590,437 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}" name="Table1" displayName="Table1" ref="A1:I19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
-  <autoFilter ref="A1:I19" xr:uid="{A644CB40-5D0E-4EC7-B73F-375AD248FD75}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{13244BAA-6E4E-45A8-BE73-4D4764516016}" name="Descrizione Titolo" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{F51F4DA1-A077-4914-80B4-AD8AFEA9ADAD}" name="ISIN" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{C2133E33-0C58-4FAA-8AA3-38DFFFDB3BB4}" name="Quantità" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{D1F0CC62-5D59-4DA0-8EAB-4BB138EF8A47}" name="Divisa" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{C9B3D54A-E0B9-4828-98B2-9CC4D10E4F29}" name="Prezzo Carico (EUR)" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{D840105F-A0FF-48B3-B6D2-7C8E4E15D7F8}" name="Data (acquisto/vendita)" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{55060C3D-5427-4473-A5E5-D5782153505A}" name="Operazione" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{8247D659-8814-4F8E-BCA4-CB69E15D5754}" name="Prezzo Operazione (EUR)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{CB075AA3-AE95-48F4-96AF-9F28838DD478}" name="Prezzo Corrente (EUR)" dataDxfId="7" totalsRowDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Portafoglio"/>
+      <sheetName val="Costanti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>AMUNDI ELTIF PIR AP</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>LU2906336990</v>
+          </cell>
+          <cell r="D7">
+            <v>99.85</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F7">
+            <v>100</v>
+          </cell>
+          <cell r="J7">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L7">
+            <v>100.77</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>BSKT/BNPI 28</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>XS3174997521</v>
+          </cell>
+          <cell r="D8">
+            <v>155</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F8">
+            <v>94.621300000000005</v>
+          </cell>
+          <cell r="J8">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L8">
+            <v>95.99</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>BTP01.03.22-01.04.27</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>IT0005484552</v>
+          </cell>
+          <cell r="D9">
+            <v>25000</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F9">
+            <v>90.380700000000004</v>
+          </cell>
+          <cell r="J9">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L9">
+            <v>98.96</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>FID ASIA AGGR AC EUR</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>LU0345361124</v>
+          </cell>
+          <cell r="D10">
+            <v>786.29</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F10">
+            <v>31.14</v>
+          </cell>
+          <cell r="J10">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L10">
+            <v>33.24</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>FID GLO QLTY USD EUR</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>IE00BYXVGZ48</v>
+          </cell>
+          <cell r="D11">
+            <v>570</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F11">
+            <v>8.8187999999999995</v>
+          </cell>
+          <cell r="J11">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L11">
+            <v>9.2200000000000006</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>GLB X SILV USD-A EUR</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>IE000UL6CLP7</v>
+          </cell>
+          <cell r="D12">
+            <v>237</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F12">
+            <v>42.381100000000004</v>
+          </cell>
+          <cell r="J12">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L12">
+            <v>37.895000000000003</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>H2O MULTIBONDS R EUR</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>FR0013393329</v>
+          </cell>
+          <cell r="D13">
+            <v>808.88599999999997</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F13">
+            <v>79.260800000000003</v>
+          </cell>
+          <cell r="J13">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L13">
+            <v>153.02000000000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>H2O MULTISTRATEGIES</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>FR0010923383</v>
+          </cell>
+          <cell r="D14">
+            <v>255.42699999999999</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F14">
+            <v>188.8296</v>
+          </cell>
+          <cell r="J14">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L14">
+            <v>385.74</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>ISHS MSCI WORLD EUR</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>IE00B4L5Y983</v>
+          </cell>
+          <cell r="D15">
+            <v>47</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F15">
+            <v>108.09699999999999</v>
+          </cell>
+          <cell r="J15">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L15">
+            <v>113.44</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>M&amp;G EUROP STRA VAL A</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>LU1670707527</v>
+          </cell>
+          <cell r="D16">
+            <v>945.54899999999998</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F16">
+            <v>16.910799999999998</v>
+          </cell>
+          <cell r="J16">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L16">
+            <v>21.462599999999998</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>MSIF GL BRDS AC</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>LU0119620416</v>
+          </cell>
+          <cell r="D17">
+            <v>104.37</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="F17">
+            <v>183.25</v>
+          </cell>
+          <cell r="J17">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L17">
+            <v>180.55615999999998</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>MSIF GL OPP AC</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>LU0552385295</v>
+          </cell>
+          <cell r="D18">
+            <v>207.953</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="F18">
+            <v>86.142099999999999</v>
+          </cell>
+          <cell r="J18">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L18">
+            <v>136.03616</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>N1 CLIM ENV EQ B EUR</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>LU0348926287</v>
+          </cell>
+          <cell r="D19">
+            <v>448.18400000000003</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F19">
+            <v>24.51</v>
+          </cell>
+          <cell r="J19">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L19">
+            <v>35.299799999999998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>N1 EUR BANK D BP EUR</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>LU0772944145</v>
+          </cell>
+          <cell r="D20">
+            <v>117.944</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F20">
+            <v>188.49709999999999</v>
+          </cell>
+          <cell r="J20">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L20">
+            <v>210.91560000000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>SISF ASIAN OP AC EUR</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>LU0248184466</v>
+          </cell>
+          <cell r="D21">
+            <v>586.02</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F21">
+            <v>17.7333</v>
+          </cell>
+          <cell r="J21">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L21">
+            <v>26.828800000000001</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>VON EXPE28</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>DE000VJ0K5X0</v>
+          </cell>
+          <cell r="D22">
+            <v>15</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F22">
+            <v>1009.4647</v>
+          </cell>
+          <cell r="J22">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L22">
+            <v>1011</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>VON EXPE29</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>DE000VJ20861</v>
+          </cell>
+          <cell r="D23">
+            <v>205</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F23">
+            <v>97.022000000000006</v>
+          </cell>
+          <cell r="J23">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L23">
+            <v>99.4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>XTRACKERS INFORM EUR</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>IE00BM67HT60</v>
+          </cell>
+          <cell r="D24">
+            <v>86</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>EUR</v>
+          </cell>
+          <cell r="F24">
+            <v>93.194999999999993</v>
+          </cell>
+          <cell r="J24">
+            <v>46056.366570081016</v>
+          </cell>
+          <cell r="L24">
+            <v>98.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1423,11 +1340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5:I7"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,8 +1363,8 @@
     <col min="14" max="14" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1469,567 +1386,674 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="22">
-        <f>SUM(K2:K19)</f>
-        <v>489607.11841121991</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="20">
+        <f ca="1">SUM(K2:K19)</f>
+        <v>2934843.3182326802</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="str">
+        <f>[1]Portafoglio!B7</f>
+        <v>AMUNDI ELTIF PIR AP</v>
+      </c>
+      <c r="B2" s="22" t="str">
+        <f>[1]Portafoglio!C7</f>
+        <v>LU2906336990</v>
+      </c>
+      <c r="C2" s="23">
+        <f>[1]Portafoglio!D7</f>
         <v>99.85</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="D2" s="24" t="str">
+        <f>[1]Portafoglio!E7</f>
+        <v>EUR</v>
+      </c>
+      <c r="E2" s="25">
+        <f>[1]Portafoglio!F7</f>
         <v>100</v>
       </c>
-      <c r="F2" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="33">
-        <v>100.33</v>
-      </c>
-      <c r="K2" s="35">
-        <f>+C2*I2</f>
-        <v>10017.950499999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="F2" s="17">
+        <f>TRUNC([1]Portafoglio!J7)</f>
+        <v>46056</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="28">
+        <f ca="1">[1]Portafoglio!L7</f>
+        <v>100.77</v>
+      </c>
+      <c r="K2" s="26">
+        <f ca="1">+C2*I2</f>
+        <v>10061.884499999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="str">
+        <f>[1]Portafoglio!B8</f>
+        <v>BSKT/BNPI 28</v>
+      </c>
+      <c r="B3" s="22" t="str">
+        <f>[1]Portafoglio!C8</f>
+        <v>XS3174997521</v>
+      </c>
+      <c r="C3" s="23">
+        <f>[1]Portafoglio!D8</f>
         <v>155</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="24" t="str">
+        <f>[1]Portafoglio!E8</f>
+        <v>EUR</v>
+      </c>
+      <c r="E3" s="25">
+        <f>[1]Portafoglio!F8</f>
         <v>94.621300000000005</v>
       </c>
-      <c r="F3" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="33">
-        <v>95.4</v>
-      </c>
-      <c r="K3" s="35">
-        <f t="shared" ref="K3:K19" si="0">+C3*I3</f>
-        <v>14787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="25">
-        <v>250</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="F3" s="17">
+        <f>TRUNC([1]Portafoglio!J8)</f>
+        <v>46056</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="28">
+        <f ca="1">[1]Portafoglio!L8</f>
+        <v>95.99</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" ref="K3:K19" ca="1" si="0">+C3*I3</f>
+        <v>14878.449999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="str">
+        <f>[1]Portafoglio!B9</f>
+        <v>BTP01.03.22-01.04.27</v>
+      </c>
+      <c r="B4" s="22" t="str">
+        <f>[1]Portafoglio!C9</f>
+        <v>IT0005484552</v>
+      </c>
+      <c r="C4" s="23">
+        <f>[1]Portafoglio!D9</f>
+        <v>25000</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f>[1]Portafoglio!E9</f>
+        <v>EUR</v>
+      </c>
+      <c r="E4" s="25">
+        <f>[1]Portafoglio!F9</f>
         <v>90.380700000000004</v>
       </c>
-      <c r="F4" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="33">
-        <v>98.92</v>
-      </c>
-      <c r="K4" s="35">
-        <f t="shared" si="0"/>
-        <v>24730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="F4" s="17">
+        <f>TRUNC([1]Portafoglio!J9)</f>
+        <v>46056</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="28">
+        <f ca="1">[1]Portafoglio!L9</f>
+        <v>98.96</v>
+      </c>
+      <c r="K4" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2474000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="str">
+        <f>[1]Portafoglio!B10</f>
+        <v>FID ASIA AGGR AC EUR</v>
+      </c>
+      <c r="B5" s="22" t="str">
+        <f>[1]Portafoglio!C10</f>
+        <v>LU0345361124</v>
+      </c>
+      <c r="C5" s="23">
+        <f>[1]Portafoglio!D10</f>
         <v>786.29</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="D5" s="24" t="str">
+        <f>[1]Portafoglio!E10</f>
+        <v>EUR</v>
+      </c>
+      <c r="E5" s="25">
+        <f>[1]Portafoglio!F10</f>
         <v>31.14</v>
       </c>
-      <c r="F5" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="37">
-        <v>38.1601</v>
-      </c>
-      <c r="K5" s="35">
-        <f t="shared" si="0"/>
-        <v>30004.905028999998</v>
-      </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36">
-        <v>0.13</v>
-      </c>
-      <c r="O5">
-        <f>+I5*(1+N5)</f>
-        <v>43.120912999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="F5" s="17">
+        <f>TRUNC([1]Portafoglio!J10)</f>
+        <v>46056</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="28">
+        <f ca="1">[1]Portafoglio!L10</f>
+        <v>33.24</v>
+      </c>
+      <c r="K5" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>26136.279600000002</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="str">
+        <f>[1]Portafoglio!B11</f>
+        <v>FID GLO QLTY USD EUR</v>
+      </c>
+      <c r="B6" s="22" t="str">
+        <f>[1]Portafoglio!C11</f>
+        <v>IE00BYXVGZ48</v>
+      </c>
+      <c r="C6" s="23">
+        <f>[1]Portafoglio!D11</f>
         <v>570</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="24" t="str">
+        <f>[1]Portafoglio!E11</f>
+        <v>EUR</v>
+      </c>
+      <c r="E6" s="25">
+        <f>[1]Portafoglio!F11</f>
         <v>8.8187999999999995</v>
       </c>
-      <c r="F6" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="37">
-        <v>9.307500000000001</v>
-      </c>
-      <c r="K6" s="35">
-        <f t="shared" si="0"/>
-        <v>5305.2750000000005</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="O6">
-        <f>+I6*(1+N6)</f>
-        <v>9.4936500000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="F6" s="17">
+        <f>TRUNC([1]Portafoglio!J11)</f>
+        <v>46056</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="28">
+        <f ca="1">[1]Portafoglio!L11</f>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K6" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>5255.4000000000005</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="str">
+        <f>[1]Portafoglio!B12</f>
+        <v>GLB X SILV USD-A EUR</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <f>[1]Portafoglio!C12</f>
+        <v>IE000UL6CLP7</v>
+      </c>
+      <c r="C7" s="23">
+        <f>[1]Portafoglio!D12</f>
         <v>237</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="D7" s="24" t="str">
+        <f>[1]Portafoglio!E12</f>
+        <v>EUR</v>
+      </c>
+      <c r="E7" s="25">
+        <f>[1]Portafoglio!F12</f>
         <v>42.381100000000004</v>
       </c>
-      <c r="F7" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="38">
-        <v>37.2286</v>
-      </c>
-      <c r="K7" s="35">
-        <f t="shared" si="0"/>
-        <v>8823.1782000000003</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36">
-        <v>-0.03</v>
-      </c>
-      <c r="O7">
-        <f>+I7*(1+N7)</f>
-        <v>36.111742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="F7" s="17">
+        <f>TRUNC([1]Portafoglio!J12)</f>
+        <v>46056</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="28">
+        <f ca="1">[1]Portafoglio!L12</f>
+        <v>37.895000000000003</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>8981.1150000000016</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="str">
+        <f>[1]Portafoglio!B13</f>
+        <v>H2O MULTIBONDS R EUR</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <f>[1]Portafoglio!C13</f>
+        <v>FR0013393329</v>
+      </c>
+      <c r="C8" s="23">
+        <f>[1]Portafoglio!D13</f>
         <v>808.88599999999997</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D8" s="24" t="str">
+        <f>[1]Portafoglio!E13</f>
+        <v>EUR</v>
+      </c>
+      <c r="E8" s="25">
+        <f>[1]Portafoglio!F13</f>
         <v>79.260800000000003</v>
       </c>
-      <c r="F8" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="33">
-        <v>153.56</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="0"/>
-        <v>124212.53416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="F8" s="17">
+        <f>TRUNC([1]Portafoglio!J13)</f>
+        <v>46056</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="28">
+        <f ca="1">[1]Portafoglio!L13</f>
+        <v>153.02000000000001</v>
+      </c>
+      <c r="K8" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>123775.73572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="str">
+        <f>[1]Portafoglio!B14</f>
+        <v>H2O MULTISTRATEGIES</v>
+      </c>
+      <c r="B9" s="22" t="str">
+        <f>[1]Portafoglio!C14</f>
+        <v>FR0010923383</v>
+      </c>
+      <c r="C9" s="23">
+        <f>[1]Portafoglio!D14</f>
+        <v>255.42699999999999</v>
+      </c>
+      <c r="D9" s="24" t="str">
+        <f>[1]Portafoglio!E14</f>
+        <v>EUR</v>
+      </c>
+      <c r="E9" s="25">
+        <f>[1]Portafoglio!F14</f>
+        <v>188.8296</v>
+      </c>
+      <c r="F9" s="17">
+        <f>TRUNC([1]Portafoglio!J14)</f>
+        <v>46056</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="28">
+        <f ca="1">[1]Portafoglio!L14</f>
+        <v>385.74</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>98528.410980000001</v>
+      </c>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="str">
+        <f>[1]Portafoglio!B15</f>
+        <v>ISHS MSCI WORLD EUR</v>
+      </c>
+      <c r="B10" s="22" t="str">
+        <f>[1]Portafoglio!C15</f>
+        <v>IE00B4L5Y983</v>
+      </c>
+      <c r="C10" s="23">
+        <f>[1]Portafoglio!D15</f>
+        <v>47</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f>[1]Portafoglio!E15</f>
+        <v>EUR</v>
+      </c>
+      <c r="E10" s="25">
+        <f>[1]Portafoglio!F15</f>
+        <v>108.09699999999999</v>
+      </c>
+      <c r="F10" s="17">
+        <f>TRUNC([1]Portafoglio!J15)</f>
+        <v>46056</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="28">
+        <f ca="1">[1]Portafoglio!L15</f>
+        <v>113.44</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>5331.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="str">
+        <f>[1]Portafoglio!B16</f>
+        <v>M&amp;G EUROP STRA VAL A</v>
+      </c>
+      <c r="B11" s="22" t="str">
+        <f>[1]Portafoglio!C16</f>
+        <v>LU1670707527</v>
+      </c>
+      <c r="C11" s="23">
+        <f>[1]Portafoglio!D16</f>
+        <v>945.54899999999998</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f>[1]Portafoglio!E16</f>
+        <v>EUR</v>
+      </c>
+      <c r="E11" s="25">
+        <f>[1]Portafoglio!F16</f>
+        <v>16.910799999999998</v>
+      </c>
+      <c r="F11" s="17">
+        <f>TRUNC([1]Portafoglio!J16)</f>
+        <v>46056</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="28">
+        <f ca="1">[1]Portafoglio!L16</f>
+        <v>21.462599999999998</v>
+      </c>
+      <c r="K11" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>20293.939967399998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="str">
+        <f>[1]Portafoglio!B17</f>
+        <v>MSIF GL BRDS AC</v>
+      </c>
+      <c r="B12" s="22" t="str">
+        <f>[1]Portafoglio!C17</f>
+        <v>LU0119620416</v>
+      </c>
+      <c r="C12" s="23">
+        <f>[1]Portafoglio!D17</f>
+        <v>104.37</v>
+      </c>
+      <c r="D12" s="24" t="str">
+        <f>[1]Portafoglio!E17</f>
+        <v>USD</v>
+      </c>
+      <c r="E12" s="25">
+        <f>[1]Portafoglio!F17</f>
+        <v>183.25</v>
+      </c>
+      <c r="F12" s="17">
+        <f>TRUNC([1]Portafoglio!J17)</f>
+        <v>46056</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="28">
+        <f ca="1">[1]Portafoglio!L17</f>
+        <v>180.55615999999998</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>18844.646419199998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="str">
+        <f>[1]Portafoglio!B18</f>
+        <v>MSIF GL OPP AC</v>
+      </c>
+      <c r="B13" s="22" t="str">
+        <f>[1]Portafoglio!C18</f>
+        <v>LU0552385295</v>
+      </c>
+      <c r="C13" s="23">
+        <f>[1]Portafoglio!D18</f>
+        <v>207.953</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f>[1]Portafoglio!E18</f>
+        <v>USD</v>
+      </c>
+      <c r="E13" s="25">
+        <f>[1]Portafoglio!F18</f>
+        <v>86.142099999999999</v>
+      </c>
+      <c r="F13" s="17">
+        <f>TRUNC([1]Portafoglio!J18)</f>
+        <v>46056</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="28">
+        <f ca="1">[1]Portafoglio!L18</f>
+        <v>136.03616</v>
+      </c>
+      <c r="K13" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>28289.127580479999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="str">
+        <f>[1]Portafoglio!B19</f>
+        <v>N1 CLIM ENV EQ B EUR</v>
+      </c>
+      <c r="B14" s="22" t="str">
+        <f>[1]Portafoglio!C19</f>
+        <v>LU0348926287</v>
+      </c>
+      <c r="C14" s="23">
+        <f>[1]Portafoglio!D19</f>
+        <v>448.18400000000003</v>
+      </c>
+      <c r="D14" s="24" t="str">
+        <f>[1]Portafoglio!E19</f>
+        <v>EUR</v>
+      </c>
+      <c r="E14" s="25">
+        <f>[1]Portafoglio!F19</f>
+        <v>24.51</v>
+      </c>
+      <c r="F14" s="17">
+        <f>TRUNC([1]Portafoglio!J19)</f>
+        <v>46056</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="28">
+        <f ca="1">[1]Portafoglio!L19</f>
+        <v>35.299799999999998</v>
+      </c>
+      <c r="K14" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>15820.8055632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="str">
+        <f>[1]Portafoglio!B20</f>
+        <v>N1 EUR BANK D BP EUR</v>
+      </c>
+      <c r="B15" s="22" t="str">
+        <f>[1]Portafoglio!C20</f>
+        <v>LU0772944145</v>
+      </c>
+      <c r="C15" s="23">
+        <f>[1]Portafoglio!D20</f>
+        <v>117.944</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f>[1]Portafoglio!E20</f>
+        <v>EUR</v>
+      </c>
+      <c r="E15" s="25">
+        <f>[1]Portafoglio!F20</f>
+        <v>188.49709999999999</v>
+      </c>
+      <c r="F15" s="17">
+        <f>TRUNC([1]Portafoglio!J20)</f>
+        <v>46056</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="28">
+        <f ca="1">[1]Portafoglio!L20</f>
+        <v>210.91560000000001</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>24876.229526400002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="str">
+        <f>[1]Portafoglio!B21</f>
+        <v>SISF ASIAN OP AC EUR</v>
+      </c>
+      <c r="B16" s="22" t="str">
+        <f>[1]Portafoglio!C21</f>
+        <v>LU0248184466</v>
+      </c>
+      <c r="C16" s="23">
+        <f>[1]Portafoglio!D21</f>
+        <v>586.02</v>
+      </c>
+      <c r="D16" s="24" t="str">
+        <f>[1]Portafoglio!E21</f>
+        <v>EUR</v>
+      </c>
+      <c r="E16" s="25">
+        <f>[1]Portafoglio!F21</f>
+        <v>17.7333</v>
+      </c>
+      <c r="F16" s="17">
+        <f>TRUNC([1]Portafoglio!J21)</f>
+        <v>46056</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="28">
+        <f ca="1">[1]Portafoglio!L21</f>
+        <v>26.828800000000001</v>
+      </c>
+      <c r="K16" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>15722.213376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="str">
+        <f>[1]Portafoglio!B22</f>
+        <v>VON EXPE28</v>
+      </c>
+      <c r="B17" s="22" t="str">
+        <f>[1]Portafoglio!C22</f>
+        <v>DE000VJ0K5X0</v>
+      </c>
+      <c r="C17" s="23">
+        <f>[1]Portafoglio!D22</f>
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="25">
-        <v>255.42699999999999</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="27">
-        <v>188.8296</v>
-      </c>
-      <c r="F9" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="33">
-        <v>387.35</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="0"/>
-        <v>98939.648450000008</v>
-      </c>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="25">
-        <v>47</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="27">
-        <v>108.09699999999999</v>
-      </c>
-      <c r="F10" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="33">
-        <v>112.51</v>
-      </c>
-      <c r="K10" s="35">
-        <f t="shared" si="0"/>
-        <v>5287.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="25">
-        <v>945.54899999999998</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="27">
-        <v>16.910799999999998</v>
-      </c>
-      <c r="F11" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="33">
-        <v>21.368099999999998</v>
-      </c>
-      <c r="K11" s="35">
-        <f t="shared" si="0"/>
-        <v>20204.585586899997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="25">
-        <v>104.37</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="27">
-        <v>183.25</v>
-      </c>
-      <c r="F12" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="33">
-        <v>179.13438399999998</v>
-      </c>
-      <c r="K12" s="35">
-        <f t="shared" si="0"/>
-        <v>18696.255658079997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="25">
-        <v>207.953</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="27">
-        <v>86.142099999999999</v>
-      </c>
-      <c r="F13" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="33">
-        <v>135.32948000000002</v>
-      </c>
-      <c r="K13" s="35">
-        <f t="shared" si="0"/>
-        <v>28142.171354440005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="25">
-        <v>448.18400000000003</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="27">
-        <v>24.51</v>
-      </c>
-      <c r="F14" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="33">
-        <v>35.470399999999998</v>
-      </c>
-      <c r="K14" s="35">
-        <f t="shared" si="0"/>
-        <v>15897.265753600001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="25">
-        <v>117.944</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="27">
-        <v>188.49709999999999</v>
-      </c>
-      <c r="F15" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="33">
-        <v>210.97380000000001</v>
-      </c>
-      <c r="K15" s="35">
-        <f t="shared" si="0"/>
-        <v>24883.093867200001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="25">
-        <v>586.02</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="27">
-        <v>17.7333</v>
-      </c>
-      <c r="F16" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="33">
-        <v>27.0626</v>
-      </c>
-      <c r="K16" s="35">
-        <f t="shared" si="0"/>
-        <v>15859.224851999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="25">
-        <v>15</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="27">
+      <c r="D17" s="24" t="str">
+        <f>[1]Portafoglio!E22</f>
+        <v>EUR</v>
+      </c>
+      <c r="E17" s="25">
+        <f>[1]Portafoglio!F22</f>
         <v>1009.4647</v>
       </c>
-      <c r="F17" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="33">
-        <v>1005</v>
-      </c>
-      <c r="K17" s="35">
-        <f t="shared" si="0"/>
-        <v>15075</v>
+      <c r="F17" s="17">
+        <f>TRUNC([1]Portafoglio!J22)</f>
+        <v>46056</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="28">
+        <f ca="1">[1]Portafoglio!L22</f>
+        <v>1011</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>15165</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="25">
+      <c r="A18" s="21" t="str">
+        <f>[1]Portafoglio!B23</f>
+        <v>VON EXPE29</v>
+      </c>
+      <c r="B18" s="22" t="str">
+        <f>[1]Portafoglio!C23</f>
+        <v>DE000VJ20861</v>
+      </c>
+      <c r="C18" s="23">
+        <f>[1]Portafoglio!D23</f>
         <v>205</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="27">
+      <c r="D18" s="24" t="str">
+        <f>[1]Portafoglio!E23</f>
+        <v>EUR</v>
+      </c>
+      <c r="E18" s="25">
+        <f>[1]Portafoglio!F23</f>
         <v>97.022000000000006</v>
       </c>
-      <c r="F18" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="33">
-        <v>99</v>
-      </c>
-      <c r="K18" s="35">
-        <f t="shared" si="0"/>
-        <v>20295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="F18" s="17">
+        <f>TRUNC([1]Portafoglio!J23)</f>
+        <v>46056</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="28">
+        <f ca="1">[1]Portafoglio!L23</f>
+        <v>99.4</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>20377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="str">
+        <f>[1]Portafoglio!B24</f>
+        <v>XTRACKERS INFORM EUR</v>
+      </c>
+      <c r="B19" s="22" t="str">
+        <f>[1]Portafoglio!C24</f>
+        <v>IE00BM67HT60</v>
+      </c>
+      <c r="C19" s="23">
+        <f>[1]Portafoglio!D24</f>
         <v>86</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="24" t="str">
+        <f>[1]Portafoglio!E24</f>
+        <v>EUR</v>
+      </c>
+      <c r="E19" s="25">
+        <f>[1]Portafoglio!F24</f>
         <v>93.194999999999993</v>
       </c>
-      <c r="F19" s="19">
-        <v>46055</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="34">
-        <v>98.21</v>
-      </c>
-      <c r="K19" s="35">
-        <f t="shared" si="0"/>
-        <v>8446.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="F19" s="17">
+        <f>TRUNC([1]Portafoglio!J24)</f>
+        <v>46056</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28">
+        <f ca="1">[1]Portafoglio!L24</f>
+        <v>98.9</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>8505.4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
     <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
@@ -2046,9 +2070,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2095,15 +2116,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12">
         <v>45002</v>
@@ -2111,10 +2132,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5">
         <v>45002</v>
@@ -2122,10 +2143,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12">
         <v>45355</v>
@@ -2133,10 +2154,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <v>45355</v>
@@ -2144,10 +2165,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12">
         <v>45355</v>
@@ -2155,10 +2176,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5">
         <v>45355</v>
@@ -2166,10 +2187,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="12">
         <v>45355</v>
@@ -2177,10 +2198,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5">
         <v>45355</v>
@@ -2188,10 +2209,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5">
         <v>45355</v>
@@ -2199,10 +2220,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="12">
         <v>45355</v>
@@ -2210,10 +2231,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5">
         <v>45355</v>
@@ -2221,10 +2242,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="12">
         <v>45701</v>
@@ -2232,10 +2253,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5">
         <v>45702</v>
@@ -2243,10 +2264,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>45702</v>
@@ -2254,10 +2275,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12">
         <v>45702</v>
@@ -2265,10 +2286,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="12">
         <v>45705</v>
@@ -2276,10 +2297,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5">
         <v>45706</v>
@@ -2287,10 +2308,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="12">
         <v>45806</v>
@@ -2298,10 +2319,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="13">
         <v>46044</v>
@@ -2309,10 +2330,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="14">
         <v>46044</v>
@@ -2320,10 +2341,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5">
         <v>46044</v>
@@ -2331,10 +2352,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="13">
         <v>46048</v>

--- a/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Prezzi_LATEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1CA8DB-61D8-461D-B590-970D48000E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF192B-38B2-4C60-AEA1-57CF9216BE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="600" windowWidth="19200" windowHeight="21000" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <author>Mauro Periccioli</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7783A90E-7FBD-4BD0-909A-B9C6CF3DE99A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3EFADE7E-CD35-4438-A69D-9133C9A23942}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{F3EA6C4C-02C9-4399-B379-A03F8AF902E3}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{F3EA6C4C-02C9-4399-B379-A03F8AF902E3}">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Descrizione Titolo</t>
   </si>
@@ -118,18 +118,9 @@
     <t>Prezzo Carico (EUR)</t>
   </si>
   <si>
-    <t>Data (acquisto/vendita)</t>
-  </si>
-  <si>
-    <t>Operazione</t>
-  </si>
-  <si>
     <t>Prezzo Corrente (EUR)</t>
   </si>
   <si>
-    <t>Prezzo Operazione (EUR)</t>
-  </si>
-  <si>
     <t>LU0345361124</t>
   </si>
   <si>
@@ -266,6 +257,12 @@
   </si>
   <si>
     <t>Controvalore Totale:</t>
+  </si>
+  <si>
+    <t>Descrizione Asset</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -274,10 +271,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;;\-"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000\ &quot;€&quot;;[Red]\-#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;;\-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -326,18 +323,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -360,6 +351,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +463,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,36 +472,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,9 +509,16 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +618,7 @@
             <v>100</v>
           </cell>
           <cell r="J7">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L7">
             <v>100.77</v>
@@ -642,10 +641,10 @@
             <v>94.621300000000005</v>
           </cell>
           <cell r="J8">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L8">
-            <v>95.99</v>
+            <v>87.06</v>
           </cell>
         </row>
         <row r="9">
@@ -665,10 +664,10 @@
             <v>90.380700000000004</v>
           </cell>
           <cell r="J9">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L9">
-            <v>98.96</v>
+            <v>98.94</v>
           </cell>
         </row>
         <row r="10">
@@ -688,10 +687,10 @@
             <v>31.14</v>
           </cell>
           <cell r="J10">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L10">
-            <v>33.24</v>
+            <v>33.49</v>
           </cell>
         </row>
         <row r="11">
@@ -711,10 +710,10 @@
             <v>8.8187999999999995</v>
           </cell>
           <cell r="J11">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L11">
-            <v>9.2200000000000006</v>
+            <v>9.1660000000000004</v>
           </cell>
         </row>
         <row r="12">
@@ -734,10 +733,10 @@
             <v>42.381100000000004</v>
           </cell>
           <cell r="J12">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L12">
-            <v>37.895000000000003</v>
+            <v>38.619999999999997</v>
           </cell>
         </row>
         <row r="13">
@@ -757,10 +756,10 @@
             <v>79.260800000000003</v>
           </cell>
           <cell r="J13">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L13">
-            <v>153.02000000000001</v>
+            <v>154.54</v>
           </cell>
         </row>
         <row r="14">
@@ -780,10 +779,10 @@
             <v>188.8296</v>
           </cell>
           <cell r="J14">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L14">
-            <v>385.74</v>
+            <v>390.66</v>
           </cell>
         </row>
         <row r="15">
@@ -803,10 +802,10 @@
             <v>108.09699999999999</v>
           </cell>
           <cell r="J15">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L15">
-            <v>113.44</v>
+            <v>111.77</v>
           </cell>
         </row>
         <row r="16">
@@ -826,10 +825,10 @@
             <v>16.910799999999998</v>
           </cell>
           <cell r="J16">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L16">
-            <v>21.462599999999998</v>
+            <v>21.6112</v>
           </cell>
         </row>
         <row r="17">
@@ -849,10 +848,10 @@
             <v>183.25</v>
           </cell>
           <cell r="J17">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L17">
-            <v>180.55615999999998</v>
+            <v>175.20813000000001</v>
           </cell>
         </row>
         <row r="18">
@@ -872,10 +871,10 @@
             <v>86.142099999999999</v>
           </cell>
           <cell r="J18">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L18">
-            <v>136.03616</v>
+            <v>130.49978999999999</v>
           </cell>
         </row>
         <row r="19">
@@ -895,10 +894,10 @@
             <v>24.51</v>
           </cell>
           <cell r="J19">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L19">
-            <v>35.299799999999998</v>
+            <v>35.7044</v>
           </cell>
         </row>
         <row r="20">
@@ -918,10 +917,10 @@
             <v>188.49709999999999</v>
           </cell>
           <cell r="J20">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L20">
-            <v>210.91560000000001</v>
+            <v>211.02279999999999</v>
           </cell>
         </row>
         <row r="21">
@@ -941,10 +940,10 @@
             <v>17.7333</v>
           </cell>
           <cell r="J21">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L21">
-            <v>26.828800000000001</v>
+            <v>27.180900000000001</v>
           </cell>
         </row>
         <row r="22">
@@ -964,10 +963,10 @@
             <v>1009.4647</v>
           </cell>
           <cell r="J22">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L22">
-            <v>1011</v>
+            <v>1020</v>
           </cell>
         </row>
         <row r="23">
@@ -987,10 +986,10 @@
             <v>97.022000000000006</v>
           </cell>
           <cell r="J23">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L23">
-            <v>99.4</v>
+            <v>96.4</v>
           </cell>
         </row>
         <row r="24">
@@ -1010,10 +1009,10 @@
             <v>93.194999999999993</v>
           </cell>
           <cell r="J24">
-            <v>46056.366570081016</v>
+            <v>46059.648170324072</v>
           </cell>
           <cell r="L24">
-            <v>98.9</v>
+            <v>94.09</v>
           </cell>
         </row>
       </sheetData>
@@ -1340,11 +1339,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F19"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1354,708 +1353,729 @@
     <col min="3" max="3" width="9.36328125" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" customWidth="1"/>
     <col min="5" max="5" width="18.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="20">
-        <f ca="1">SUM(K2:K19)</f>
-        <v>2934843.3182326802</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="str">
+      <c r="I1" s="15">
+        <f ca="1">SUM(I2:I24)</f>
+        <v>2933642.1897175703</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="str">
         <f>[1]Portafoglio!B7</f>
         <v>AMUNDI ELTIF PIR AP</v>
       </c>
-      <c r="B2" s="22" t="str">
+      <c r="B2" s="17" t="str">
         <f>[1]Portafoglio!C7</f>
         <v>LU2906336990</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="18">
         <f>[1]Portafoglio!D7</f>
         <v>99.85</v>
       </c>
-      <c r="D2" s="24" t="str">
+      <c r="D2" s="19" t="str">
         <f>[1]Portafoglio!E7</f>
         <v>EUR</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="20">
         <f>[1]Portafoglio!F7</f>
         <v>100</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="13">
         <f>TRUNC([1]Portafoglio!J7)</f>
-        <v>46056</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G2" s="23">
         <f ca="1">[1]Portafoglio!L7</f>
         <v>100.77</v>
       </c>
-      <c r="K2" s="26">
-        <f ca="1">+C2*I2</f>
+      <c r="I2" s="26">
+        <f ca="1">+C2*G2</f>
         <v>10061.884499999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="str">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="str">
         <f>[1]Portafoglio!B8</f>
         <v>BSKT/BNPI 28</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="17" t="str">
         <f>[1]Portafoglio!C8</f>
         <v>XS3174997521</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="18">
         <f>[1]Portafoglio!D8</f>
         <v>155</v>
       </c>
-      <c r="D3" s="24" t="str">
+      <c r="D3" s="19" t="str">
         <f>[1]Portafoglio!E8</f>
         <v>EUR</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="20">
         <f>[1]Portafoglio!F8</f>
         <v>94.621300000000005</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <f>TRUNC([1]Portafoglio!J8)</f>
-        <v>46056</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G3" s="23">
         <f ca="1">[1]Portafoglio!L8</f>
-        <v>95.99</v>
-      </c>
-      <c r="K3" s="26">
-        <f t="shared" ref="K3:K19" ca="1" si="0">+C3*I3</f>
-        <v>14878.449999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="str">
+        <v>87.06</v>
+      </c>
+      <c r="I3" s="26">
+        <f ca="1">+C3*G3</f>
+        <v>13494.300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="str">
         <f>[1]Portafoglio!B9</f>
         <v>BTP01.03.22-01.04.27</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="17" t="str">
         <f>[1]Portafoglio!C9</f>
         <v>IT0005484552</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <f>[1]Portafoglio!D9</f>
         <v>25000</v>
       </c>
-      <c r="D4" s="24" t="str">
+      <c r="D4" s="19" t="str">
         <f>[1]Portafoglio!E9</f>
         <v>EUR</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="20">
         <f>[1]Portafoglio!F9</f>
         <v>90.380700000000004</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="13">
         <f>TRUNC([1]Portafoglio!J9)</f>
-        <v>46056</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G4" s="23">
         <f ca="1">[1]Portafoglio!L9</f>
-        <v>98.96</v>
-      </c>
-      <c r="K4" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2474000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="str">
+        <v>98.94</v>
+      </c>
+      <c r="I4" s="26">
+        <f ca="1">+C4*G4</f>
+        <v>2473500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="str">
         <f>[1]Portafoglio!B10</f>
         <v>FID ASIA AGGR AC EUR</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="17" t="str">
         <f>[1]Portafoglio!C10</f>
         <v>LU0345361124</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="18">
         <f>[1]Portafoglio!D10</f>
         <v>786.29</v>
       </c>
-      <c r="D5" s="24" t="str">
+      <c r="D5" s="19" t="str">
         <f>[1]Portafoglio!E10</f>
         <v>EUR</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="20">
         <f>[1]Portafoglio!F10</f>
         <v>31.14</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <f>TRUNC([1]Portafoglio!J10)</f>
-        <v>46056</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G5" s="23">
         <f ca="1">[1]Portafoglio!L10</f>
-        <v>33.24</v>
-      </c>
-      <c r="K5" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>26136.279600000002</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="str">
+        <v>33.49</v>
+      </c>
+      <c r="I5" s="26">
+        <f ca="1">+C5*G5</f>
+        <v>26332.8521</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="str">
         <f>[1]Portafoglio!B11</f>
         <v>FID GLO QLTY USD EUR</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="17" t="str">
         <f>[1]Portafoglio!C11</f>
         <v>IE00BYXVGZ48</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <f>[1]Portafoglio!D11</f>
         <v>570</v>
       </c>
-      <c r="D6" s="24" t="str">
+      <c r="D6" s="19" t="str">
         <f>[1]Portafoglio!E11</f>
         <v>EUR</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="20">
         <f>[1]Portafoglio!F11</f>
         <v>8.8187999999999995</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <f>TRUNC([1]Portafoglio!J11)</f>
-        <v>46056</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G6" s="23">
         <f ca="1">[1]Portafoglio!L11</f>
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="K6" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>5255.4000000000005</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="str">
+        <v>9.1660000000000004</v>
+      </c>
+      <c r="I6" s="26">
+        <f ca="1">+C6*G6</f>
+        <v>5224.62</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="str">
         <f>[1]Portafoglio!B12</f>
         <v>GLB X SILV USD-A EUR</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="17" t="str">
         <f>[1]Portafoglio!C12</f>
         <v>IE000UL6CLP7</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <f>[1]Portafoglio!D12</f>
         <v>237</v>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="19" t="str">
         <f>[1]Portafoglio!E12</f>
         <v>EUR</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="20">
         <f>[1]Portafoglio!F12</f>
         <v>42.381100000000004</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <f>TRUNC([1]Portafoglio!J12)</f>
-        <v>46056</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G7" s="23">
         <f ca="1">[1]Portafoglio!L12</f>
-        <v>37.895000000000003</v>
-      </c>
-      <c r="K7" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>8981.1150000000016</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="str">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="I7" s="26">
+        <f ca="1">+C7*G7</f>
+        <v>9152.9399999999987</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="str">
         <f>[1]Portafoglio!B13</f>
         <v>H2O MULTIBONDS R EUR</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="17" t="str">
         <f>[1]Portafoglio!C13</f>
         <v>FR0013393329</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="18">
         <f>[1]Portafoglio!D13</f>
         <v>808.88599999999997</v>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="19" t="str">
         <f>[1]Portafoglio!E13</f>
         <v>EUR</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="20">
         <f>[1]Portafoglio!F13</f>
         <v>79.260800000000003</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <f>TRUNC([1]Portafoglio!J13)</f>
-        <v>46056</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G8" s="23">
         <f ca="1">[1]Portafoglio!L13</f>
-        <v>153.02000000000001</v>
-      </c>
-      <c r="K8" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>123775.73572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="str">
+        <v>154.54</v>
+      </c>
+      <c r="I8" s="26">
+        <f ca="1">+C8*G8</f>
+        <v>125005.24243999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="str">
         <f>[1]Portafoglio!B14</f>
         <v>H2O MULTISTRATEGIES</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="17" t="str">
         <f>[1]Portafoglio!C14</f>
         <v>FR0010923383</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <f>[1]Portafoglio!D14</f>
         <v>255.42699999999999</v>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="19" t="str">
         <f>[1]Portafoglio!E14</f>
         <v>EUR</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="20">
         <f>[1]Portafoglio!F14</f>
         <v>188.8296</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <f>TRUNC([1]Portafoglio!J14)</f>
-        <v>46056</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G9" s="23">
         <f ca="1">[1]Portafoglio!L14</f>
-        <v>385.74</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>98528.410980000001</v>
-      </c>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="str">
+        <v>390.66</v>
+      </c>
+      <c r="I9" s="26">
+        <f ca="1">+C9*G9</f>
+        <v>99785.111820000006</v>
+      </c>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="str">
         <f>[1]Portafoglio!B15</f>
         <v>ISHS MSCI WORLD EUR</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="17" t="str">
         <f>[1]Portafoglio!C15</f>
         <v>IE00B4L5Y983</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="18">
         <f>[1]Portafoglio!D15</f>
         <v>47</v>
       </c>
-      <c r="D10" s="24" t="str">
+      <c r="D10" s="19" t="str">
         <f>[1]Portafoglio!E15</f>
         <v>EUR</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="20">
         <f>[1]Portafoglio!F15</f>
         <v>108.09699999999999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <f>TRUNC([1]Portafoglio!J15)</f>
-        <v>46056</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G10" s="23">
         <f ca="1">[1]Portafoglio!L15</f>
-        <v>113.44</v>
-      </c>
-      <c r="K10" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>5331.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="str">
+        <v>111.77</v>
+      </c>
+      <c r="I10" s="26">
+        <f ca="1">+C10*G10</f>
+        <v>5253.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="str">
         <f>[1]Portafoglio!B16</f>
         <v>M&amp;G EUROP STRA VAL A</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="17" t="str">
         <f>[1]Portafoglio!C16</f>
         <v>LU1670707527</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="18">
         <f>[1]Portafoglio!D16</f>
         <v>945.54899999999998</v>
       </c>
-      <c r="D11" s="24" t="str">
+      <c r="D11" s="19" t="str">
         <f>[1]Portafoglio!E16</f>
         <v>EUR</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="20">
         <f>[1]Portafoglio!F16</f>
         <v>16.910799999999998</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <f>TRUNC([1]Portafoglio!J16)</f>
-        <v>46056</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G11" s="23">
         <f ca="1">[1]Portafoglio!L16</f>
-        <v>21.462599999999998</v>
-      </c>
-      <c r="K11" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>20293.939967399998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="str">
+        <v>21.6112</v>
+      </c>
+      <c r="I11" s="26">
+        <f ca="1">+C11*G11</f>
+        <v>20434.448548799999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="str">
         <f>[1]Portafoglio!B17</f>
         <v>MSIF GL BRDS AC</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="17" t="str">
         <f>[1]Portafoglio!C17</f>
         <v>LU0119620416</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="18">
         <f>[1]Portafoglio!D17</f>
         <v>104.37</v>
       </c>
-      <c r="D12" s="24" t="str">
+      <c r="D12" s="19" t="str">
         <f>[1]Portafoglio!E17</f>
         <v>USD</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="20">
         <f>[1]Portafoglio!F17</f>
         <v>183.25</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <f>TRUNC([1]Portafoglio!J17)</f>
-        <v>46056</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G12" s="23">
         <f ca="1">[1]Portafoglio!L17</f>
-        <v>180.55615999999998</v>
-      </c>
-      <c r="K12" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>18844.646419199998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="str">
+        <v>175.20813000000001</v>
+      </c>
+      <c r="I12" s="26">
+        <f ca="1">+C12*G12</f>
+        <v>18286.472528100003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="str">
         <f>[1]Portafoglio!B18</f>
         <v>MSIF GL OPP AC</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="17" t="str">
         <f>[1]Portafoglio!C18</f>
         <v>LU0552385295</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="18">
         <f>[1]Portafoglio!D18</f>
         <v>207.953</v>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="19" t="str">
         <f>[1]Portafoglio!E18</f>
         <v>USD</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="20">
         <f>[1]Portafoglio!F18</f>
         <v>86.142099999999999</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <f>TRUNC([1]Portafoglio!J18)</f>
-        <v>46056</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G13" s="23">
         <f ca="1">[1]Portafoglio!L18</f>
-        <v>136.03616</v>
-      </c>
-      <c r="K13" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>28289.127580479999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="str">
+        <v>130.49978999999999</v>
+      </c>
+      <c r="I13" s="26">
+        <f ca="1">+C13*G13</f>
+        <v>27137.822829869998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="str">
         <f>[1]Portafoglio!B19</f>
         <v>N1 CLIM ENV EQ B EUR</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="17" t="str">
         <f>[1]Portafoglio!C19</f>
         <v>LU0348926287</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="18">
         <f>[1]Portafoglio!D19</f>
         <v>448.18400000000003</v>
       </c>
-      <c r="D14" s="24" t="str">
+      <c r="D14" s="19" t="str">
         <f>[1]Portafoglio!E19</f>
         <v>EUR</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="20">
         <f>[1]Portafoglio!F19</f>
         <v>24.51</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <f>TRUNC([1]Portafoglio!J19)</f>
-        <v>46056</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G14" s="23">
         <f ca="1">[1]Portafoglio!L19</f>
-        <v>35.299799999999998</v>
-      </c>
-      <c r="K14" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>15820.8055632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="str">
+        <v>35.7044</v>
+      </c>
+      <c r="I14" s="26">
+        <f ca="1">+C14*G14</f>
+        <v>16002.140809600001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="str">
         <f>[1]Portafoglio!B20</f>
         <v>N1 EUR BANK D BP EUR</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="17" t="str">
         <f>[1]Portafoglio!C20</f>
         <v>LU0772944145</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="18">
         <f>[1]Portafoglio!D20</f>
         <v>117.944</v>
       </c>
-      <c r="D15" s="24" t="str">
+      <c r="D15" s="19" t="str">
         <f>[1]Portafoglio!E20</f>
         <v>EUR</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="20">
         <f>[1]Portafoglio!F20</f>
         <v>188.49709999999999</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <f>TRUNC([1]Portafoglio!J20)</f>
-        <v>46056</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G15" s="23">
         <f ca="1">[1]Portafoglio!L20</f>
-        <v>210.91560000000001</v>
-      </c>
-      <c r="K15" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>24876.229526400002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="str">
+        <v>211.02279999999999</v>
+      </c>
+      <c r="I15" s="26">
+        <f ca="1">+C15*G15</f>
+        <v>24888.873123199999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="str">
         <f>[1]Portafoglio!B21</f>
         <v>SISF ASIAN OP AC EUR</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="17" t="str">
         <f>[1]Portafoglio!C21</f>
         <v>LU0248184466</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="18">
         <f>[1]Portafoglio!D21</f>
         <v>586.02</v>
       </c>
-      <c r="D16" s="24" t="str">
+      <c r="D16" s="19" t="str">
         <f>[1]Portafoglio!E21</f>
         <v>EUR</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="20">
         <f>[1]Portafoglio!F21</f>
         <v>17.7333</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <f>TRUNC([1]Portafoglio!J21)</f>
-        <v>46056</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G16" s="23">
         <f ca="1">[1]Portafoglio!L21</f>
-        <v>26.828800000000001</v>
-      </c>
-      <c r="K16" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>15722.213376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="str">
+        <v>27.180900000000001</v>
+      </c>
+      <c r="I16" s="26">
+        <f ca="1">+C16*G16</f>
+        <v>15928.551018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="str">
         <f>[1]Portafoglio!B22</f>
         <v>VON EXPE28</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="17" t="str">
         <f>[1]Portafoglio!C22</f>
         <v>DE000VJ0K5X0</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="18">
         <f>[1]Portafoglio!D22</f>
         <v>15</v>
       </c>
-      <c r="D17" s="24" t="str">
+      <c r="D17" s="19" t="str">
         <f>[1]Portafoglio!E22</f>
         <v>EUR</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="20">
         <f>[1]Portafoglio!F22</f>
         <v>1009.4647</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <f>TRUNC([1]Portafoglio!J22)</f>
-        <v>46056</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G17" s="23">
         <f ca="1">[1]Portafoglio!L22</f>
-        <v>1011</v>
-      </c>
-      <c r="K17" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>15165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="str">
+        <v>1020</v>
+      </c>
+      <c r="I17" s="26">
+        <f ca="1">+C17*G17</f>
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="str">
         <f>[1]Portafoglio!B23</f>
         <v>VON EXPE29</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="17" t="str">
         <f>[1]Portafoglio!C23</f>
         <v>DE000VJ20861</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="18">
         <f>[1]Portafoglio!D23</f>
         <v>205</v>
       </c>
-      <c r="D18" s="24" t="str">
+      <c r="D18" s="19" t="str">
         <f>[1]Portafoglio!E23</f>
         <v>EUR</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="20">
         <f>[1]Portafoglio!F23</f>
         <v>97.022000000000006</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <f>TRUNC([1]Portafoglio!J23)</f>
-        <v>46056</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G18" s="23">
         <f ca="1">[1]Portafoglio!L23</f>
-        <v>99.4</v>
-      </c>
-      <c r="K18" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>20377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="str">
+        <v>96.4</v>
+      </c>
+      <c r="I18" s="26">
+        <f ca="1">+C18*G18</f>
+        <v>19762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="str">
         <f>[1]Portafoglio!B24</f>
         <v>XTRACKERS INFORM EUR</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="17" t="str">
         <f>[1]Portafoglio!C24</f>
         <v>IE00BM67HT60</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="18">
         <f>[1]Portafoglio!D24</f>
         <v>86</v>
       </c>
-      <c r="D19" s="24" t="str">
+      <c r="D19" s="19" t="str">
         <f>[1]Portafoglio!E24</f>
         <v>EUR</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="20">
         <f>[1]Portafoglio!F24</f>
         <v>93.194999999999993</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="13">
         <f>TRUNC([1]Portafoglio!J24)</f>
-        <v>46056</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28">
+        <v>46059</v>
+      </c>
+      <c r="G19" s="23">
         <f ca="1">[1]Portafoglio!L24</f>
-        <v>98.9</v>
-      </c>
-      <c r="K19" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>8505.4</v>
+        <v>94.09</v>
+      </c>
+      <c r="I19" s="26">
+        <f ca="1">+C19*G19</f>
+        <v>8091.7400000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="23"/>
+      <c r="I20" s="26">
+        <f t="shared" ref="I20:I24" si="0">+C20*G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="23"/>
+      <c r="I21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="23"/>
+      <c r="I22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="23"/>
+      <c r="I23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="23"/>
+      <c r="I24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A19">
+  <conditionalFormatting sqref="A2:A24">
     <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>IF(AND(ISNUMBER(SEARCH("H2O", A2)), ISNUMBER(SEARCH("SP", A2))), 1,0)</formula>
     </cfRule>
@@ -2063,7 +2083,7 @@
       <formula>NOT(ISERROR(SEARCH("BTP",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D19">
+  <conditionalFormatting sqref="D2:D24">
     <cfRule type="notContainsText" dxfId="2" priority="2" operator="notContains" text="EUR">
       <formula>ISERROR(SEARCH("EUR",D2))</formula>
     </cfRule>
@@ -2085,7 +2105,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:D19</xm:sqref>
+          <xm:sqref>D2:D24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2109,255 +2129,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="C5" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C6" s="9">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="C14" s="2">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="12">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="C17" s="9">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="12">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="12">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="C19" s="9">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="11">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="5">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="12">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5">
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="12">
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12">
-        <v>45705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="13">
-        <v>46044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="14">
-        <v>46044</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="5">
-        <v>46044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="C23" s="10">
         <v>46048</v>
       </c>
     </row>
